--- a/test/data/spreadsheets/PMO-2198_a___SSC_usual_6.xlsx
+++ b/test/data/spreadsheets/PMO-2198_a___SSC_usual_6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="15" windowWidth="18915" windowHeight="8700" tabRatio="605" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-72" yWindow="12" windowWidth="18912" windowHeight="8700" tabRatio="605" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -16,15 +16,15 @@
     <sheet name="NewSliding" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sliding_in_Triangle!$A$1:$M$279</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Spec including financials'!$A$6:$I$147</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">UseCase!$A$2:$B$49</definedName>
     <definedName name="LossRatio" localSheetId="2">Sliding_in_Triangle!$D$105</definedName>
     <definedName name="LossRatio">NewSliding!$K$17</definedName>
     <definedName name="maxCo">Tabelle1!$E$22</definedName>
     <definedName name="maxLR">Tabelle1!$F$20</definedName>
     <definedName name="minCo">Tabelle1!$E$19</definedName>
     <definedName name="minLR">Tabelle1!$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sliding_in_Triangle!$A$1:$M$279</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Spec including financials'!$A$6:$I$147</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">UseCase!$A$2:$B$49</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -985,15 +985,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="#,##0;\-#,##0;"/>
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;0"/>
+    <numFmt numFmtId="175" formatCode="#,##0.000000;\-#,##0.000000;0.000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000000;\-#,##0.0000000;0.0000000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1090,8 +1092,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,6 +1153,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1390,12 +1404,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1764,10 +1779,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="14" fillId="10" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="10" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Dezimal 2" xfId="2"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1777,7 +1795,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2432,25 +2450,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69350528"/>
-        <c:axId val="69352064"/>
+        <c:axId val="50936064"/>
+        <c:axId val="51415680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69350528"/>
+        <c:axId val="50936064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69352064"/>
+        <c:crossAx val="51415680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69352064"/>
+        <c:axId val="51415680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,7 +2476,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69350528"/>
+        <c:crossAx val="50936064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2470,7 +2488,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2478,7 +2496,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2752,11 +2770,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70660864"/>
-        <c:axId val="70662784"/>
+        <c:axId val="108147840"/>
+        <c:axId val="109385216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70660864"/>
+        <c:axId val="108147840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,13 +2799,13 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70662784"/>
+        <c:crossAx val="109385216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70662784"/>
+        <c:axId val="109385216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2813,7 +2831,7 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70660864"/>
+        <c:crossAx val="108147840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3233,9 +3251,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3273,7 +3291,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3343,7 +3361,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3524,12 +3542,12 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -3672,7 +3690,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="13.5" thickBot="1">
+    <row r="17" spans="2:7" ht="13.8" thickBot="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3680,7 +3698,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="13.5" thickBot="1">
+    <row r="18" spans="2:7" ht="13.8" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -3694,7 +3712,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="13.5" thickBot="1">
+    <row r="19" spans="2:7" ht="13.8" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -3708,7 +3726,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="13.5" thickBot="1">
+    <row r="20" spans="2:7" ht="13.8" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
@@ -3722,7 +3740,7 @@
       </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="2:7" ht="13.5" thickBot="1">
+    <row r="21" spans="2:7" ht="13.8" thickBot="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3730,7 +3748,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="13.5" thickBot="1">
+    <row r="22" spans="2:7" ht="13.8" thickBot="1">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -3744,7 +3762,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="13.5" thickBot="1">
+    <row r="23" spans="2:7" ht="13.8" thickBot="1">
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
@@ -3758,7 +3776,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="13.5" thickBot="1">
+    <row r="24" spans="2:7" ht="13.8" thickBot="1">
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -3772,7 +3790,7 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="2:7" ht="13.5" thickBot="1">
+    <row r="25" spans="2:7" ht="13.8" thickBot="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3780,7 +3798,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="2:7" ht="13.5" thickBot="1">
+    <row r="26" spans="2:7" ht="13.8" thickBot="1">
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
@@ -3794,7 +3812,7 @@
       </c>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="2:7" ht="13.5" thickBot="1">
+    <row r="27" spans="2:7" ht="13.8" thickBot="1">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -4991,12 +5009,12 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -5282,7 +5300,7 @@
         <v>-131.76900000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="76.5">
+    <row r="23" spans="2:7" ht="79.2">
       <c r="C23" s="234" t="s">
         <v>185</v>
       </c>
@@ -5405,8 +5423,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="13.5" thickBot="1"/>
-    <row r="33" spans="2:5" ht="13.5" thickBot="1">
+    <row r="32" spans="2:7" ht="13.8" thickBot="1"/>
+    <row r="33" spans="2:5" ht="13.8" thickBot="1">
       <c r="B33" s="233">
         <f>Sliding_in_Triangle!C287</f>
         <v>6</v>
@@ -5434,20 +5452,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="122" customWidth="1"/>
-    <col min="3" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="122" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:9" ht="22.8" hidden="1" outlineLevel="1">
       <c r="B1" s="209" t="s">
         <v>235</v>
       </c>
@@ -5480,7 +5498,7 @@
     </row>
     <row r="7" spans="1:9" hidden="1" outlineLevel="1"/>
     <row r="8" spans="1:9" hidden="1" outlineLevel="1"/>
-    <row r="9" spans="1:9" s="32" customFormat="1" ht="15" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:9" s="32" customFormat="1" ht="14.4" hidden="1" outlineLevel="1">
       <c r="A9"/>
       <c r="B9" s="123" t="s">
         <v>226</v>
@@ -5577,7 +5595,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" outlineLevel="1"/>
-    <row r="15" spans="1:9" s="32" customFormat="1" ht="15" collapsed="1">
+    <row r="15" spans="1:9" s="32" customFormat="1" ht="14.4" collapsed="1">
       <c r="B15" s="123" t="s">
         <v>117</v>
       </c>
@@ -5668,7 +5686,7 @@
     <row r="20" spans="2:11">
       <c r="B20" s="137"/>
     </row>
-    <row r="21" spans="2:11" ht="15">
+    <row r="21" spans="2:11" ht="14.4">
       <c r="B21" s="123" t="s">
         <v>160</v>
       </c>
@@ -5688,7 +5706,7 @@
     <row r="23" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:11" ht="15" collapsed="1">
+    <row r="24" spans="2:11" ht="14.4" collapsed="1">
       <c r="B24" s="123" t="s">
         <v>170</v>
       </c>
@@ -5757,7 +5775,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="15" hidden="1" outlineLevel="1">
+    <row r="30" spans="2:11" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B30" s="123" t="s">
         <v>174</v>
       </c>
@@ -5865,7 +5883,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" hidden="1" outlineLevel="1"/>
-    <row r="36" spans="1:24" ht="15" hidden="1" outlineLevel="1">
+    <row r="36" spans="1:24" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B36" s="123" t="s">
         <v>175</v>
       </c>
@@ -5955,7 +5973,7 @@
     <row r="42" spans="1:24" hidden="1" outlineLevel="1">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:24" s="149" customFormat="1" ht="15.75" collapsed="1">
+    <row r="43" spans="1:24" s="149" customFormat="1" ht="15.6" collapsed="1">
       <c r="B43" s="150" t="s">
         <v>4</v>
       </c>
@@ -6341,7 +6359,7 @@
       <c r="W55" s="35"/>
       <c r="X55" s="35"/>
     </row>
-    <row r="56" spans="1:24" ht="76.5" hidden="1" outlineLevel="1">
+    <row r="56" spans="1:24" ht="79.2" hidden="1" outlineLevel="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
@@ -6458,7 +6476,7 @@
     </row>
     <row r="59" spans="1:24" hidden="1" outlineLevel="1"/>
     <row r="60" spans="1:24" hidden="1" outlineLevel="1"/>
-    <row r="61" spans="1:24" ht="15" hidden="1" outlineLevel="1">
+    <row r="61" spans="1:24" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B61" s="151" t="s">
         <v>124</v>
       </c>
@@ -6508,7 +6526,7 @@
         <v>8.699999999999998E-2</v>
       </c>
       <c r="C63" s="192">
-        <f t="dataTable" ref="C63:F63" dt2D="0" dtr="1" r1="D57"/>
+        <f t="dataTable" ref="C63:F63" dt2D="0" dtr="1" r1="D57" ca="1"/>
         <v>4.349999999999999E-2</v>
       </c>
       <c r="D63" s="192">
@@ -6554,7 +6572,7 @@
         <v>8.699999999999998E-2</v>
       </c>
       <c r="C65" s="126">
-        <f t="dataTable" ref="C65:F65" dt2D="0" dtr="1" r1="D57" ca="1"/>
+        <f t="dataTable" ref="C65:F65" dt2D="0" dtr="1" r1="D57"/>
         <v>0</v>
       </c>
       <c r="D65" s="192">
@@ -6660,7 +6678,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" outlineLevel="1"/>
-    <row r="71" spans="1:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="71" spans="1:8" ht="14.4" hidden="1" outlineLevel="1">
       <c r="A71" s="151"/>
       <c r="B71" s="123" t="s">
         <v>126</v>
@@ -6750,7 +6768,7 @@
       <c r="E76" s="25"/>
       <c r="F76" s="127"/>
     </row>
-    <row r="77" spans="1:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="77" spans="1:8" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B77" s="123" t="s">
         <v>218</v>
       </c>
@@ -6857,15 +6875,15 @@
     <row r="83" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:14" s="149" customFormat="1" ht="15.75" hidden="1" outlineLevel="1">
+    <row r="84" spans="1:14" s="149" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
       <c r="B84" s="150" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="176" customFormat="1" ht="15.75" collapsed="1">
+    <row r="85" spans="1:14" s="176" customFormat="1" ht="15.6" collapsed="1">
       <c r="B85" s="177"/>
     </row>
-    <row r="86" spans="1:14" s="176" customFormat="1" ht="15.75">
+    <row r="86" spans="1:14" s="176" customFormat="1" ht="15.6">
       <c r="B86" s="150" t="s">
         <v>177</v>
       </c>
@@ -6873,10 +6891,10 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="176" customFormat="1" ht="15.75">
+    <row r="87" spans="1:14" s="176" customFormat="1" ht="15.6">
       <c r="B87" s="177"/>
     </row>
-    <row r="88" spans="1:14" ht="15" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:14" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B88" s="123" t="s">
         <v>192</v>
       </c>
@@ -6981,11 +6999,11 @@
         <v>53.363</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="176" customFormat="1" ht="15.75" hidden="1" outlineLevel="1">
+    <row r="93" spans="1:14" s="176" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
       <c r="B93" s="177"/>
     </row>
     <row r="94" spans="1:14" hidden="1" outlineLevel="1"/>
-    <row r="95" spans="1:14" s="149" customFormat="1" ht="15.75" collapsed="1">
+    <row r="95" spans="1:14" s="149" customFormat="1" ht="15.6" collapsed="1">
       <c r="B95" s="150" t="s">
         <v>92</v>
       </c>
@@ -7321,7 +7339,7 @@
         <v>0.17999999999999994</v>
       </c>
       <c r="J102" s="126">
-        <f t="dataTable" ref="J102:AY102" dt2D="0" dtr="1" r1="D105"/>
+        <f t="dataTable" ref="J102:AY102" dt2D="0" dtr="1" r1="D105" ca="1"/>
         <v>0.9</v>
       </c>
       <c r="K102" s="126">
@@ -7605,7 +7623,7 @@
       <c r="M110" s="35"/>
       <c r="N110" s="35"/>
     </row>
-    <row r="111" spans="1:51" ht="51" hidden="1" outlineLevel="1">
+    <row r="111" spans="1:51" ht="52.8" hidden="1" outlineLevel="1">
       <c r="A111" s="141"/>
       <c r="B111" s="35"/>
       <c r="C111" s="65" t="s">
@@ -7625,7 +7643,7 @@
       <c r="M111" s="35"/>
       <c r="N111" s="35"/>
     </row>
-    <row r="112" spans="1:51" ht="25.5" hidden="1" outlineLevel="1">
+    <row r="112" spans="1:51" ht="26.4" hidden="1" outlineLevel="1">
       <c r="A112" s="141"/>
       <c r="B112" s="35"/>
       <c r="C112" s="65" t="s">
@@ -7671,7 +7689,7 @@
     <row r="115" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B115"/>
     </row>
-    <row r="116" spans="1:14" ht="15" hidden="1" outlineLevel="1">
+    <row r="116" spans="1:14" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B116" s="151" t="s">
         <v>134</v>
       </c>
@@ -7721,7 +7739,7 @@
         <v>0.17999999999999994</v>
       </c>
       <c r="C118" s="192">
-        <f t="dataTable" ref="C118:F118" dt2D="0" dtr="1" r1="D105" ca="1"/>
+        <f t="dataTable" ref="C118:F118" dt2D="0" dtr="1" r1="D105"/>
         <v>0.45284999999999997</v>
       </c>
       <c r="D118" s="192">
@@ -7873,7 +7891,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" hidden="1" outlineLevel="1"/>
-    <row r="126" spans="1:14" ht="15" hidden="1" outlineLevel="1">
+    <row r="126" spans="1:14" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B126" s="123" t="s">
         <v>181</v>
       </c>
@@ -7999,7 +8017,7 @@
       <c r="E135" s="211"/>
       <c r="F135" s="193"/>
     </row>
-    <row r="136" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="136" spans="2:8" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B136" s="174" t="s">
         <v>242</v>
       </c>
@@ -8116,7 +8134,7 @@
       <c r="E142" s="25"/>
       <c r="F142" s="131"/>
     </row>
-    <row r="143" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="143" spans="2:8" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B143" s="123" t="s">
         <v>182</v>
       </c>
@@ -8222,7 +8240,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" collapsed="1"/>
-    <row r="149" spans="1:8" s="226" customFormat="1" ht="15.75">
+    <row r="149" spans="1:8" s="226" customFormat="1" ht="15.6">
       <c r="A149" s="224"/>
       <c r="B149" s="225" t="s">
         <v>169</v>
@@ -8264,7 +8282,7 @@
     <row r="154" spans="1:8" hidden="1" outlineLevel="1">
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="155" spans="1:8" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B155" s="123" t="s">
         <v>211</v>
       </c>
@@ -8386,7 +8404,7 @@
     <row r="163" spans="2:8">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:8" s="172" customFormat="1" ht="15" hidden="1" outlineLevel="1">
+    <row r="164" spans="2:8" s="172" customFormat="1" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B164" s="174" t="s">
         <v>213</v>
       </c>
@@ -8404,7 +8422,7 @@
       </c>
       <c r="H164" s="170"/>
     </row>
-    <row r="165" spans="2:8" s="172" customFormat="1" ht="15" hidden="1" outlineLevel="1">
+    <row r="165" spans="2:8" s="172" customFormat="1" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B165" s="184" t="s">
         <v>210</v>
       </c>
@@ -8513,7 +8531,7 @@
       <c r="E170" s="201"/>
       <c r="F170" s="186"/>
     </row>
-    <row r="171" spans="2:8" ht="20.25" collapsed="1">
+    <row r="171" spans="2:8" ht="20.399999999999999" collapsed="1">
       <c r="B171" s="123" t="s">
         <v>176</v>
       </c>
@@ -8525,7 +8543,7 @@
     <row r="172" spans="2:8">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="173" spans="2:8" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B173" s="123" t="s">
         <v>214</v>
       </c>
@@ -8639,7 +8657,7 @@
       <c r="E179" s="201"/>
       <c r="F179" s="186"/>
     </row>
-    <row r="180" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="180" spans="2:8" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B180" s="174" t="s">
         <v>237</v>
       </c>
@@ -8763,7 +8781,7 @@
       <c r="E187" s="201"/>
       <c r="F187" s="186"/>
     </row>
-    <row r="188" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="188" spans="2:8" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B188" s="123" t="s">
         <v>239</v>
       </c>
@@ -8885,7 +8903,7 @@
       <c r="I194" s="32"/>
       <c r="J194" s="32"/>
     </row>
-    <row r="195" spans="1:10" ht="15" hidden="1" outlineLevel="1">
+    <row r="195" spans="1:10" ht="14.4" hidden="1" outlineLevel="1">
       <c r="A195" s="172"/>
       <c r="B195" s="174" t="s">
         <v>240</v>
@@ -9020,7 +9038,7 @@
     <row r="202" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:10" ht="18" collapsed="1">
+    <row r="203" spans="1:10" ht="17.399999999999999" collapsed="1">
       <c r="B203" s="123" t="s">
         <v>185</v>
       </c>
@@ -9038,19 +9056,19 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="205" spans="1:10" outlineLevel="1">
       <c r="B205" s="22"/>
       <c r="F205" s="35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="206" spans="1:10" outlineLevel="1">
       <c r="B206" s="22"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="207" spans="1:10" outlineLevel="1">
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:10" ht="15" hidden="1" outlineLevel="1">
+    <row r="208" spans="1:10" ht="14.4" outlineLevel="1">
       <c r="B208" s="123" t="s">
         <v>178</v>
       </c>
@@ -9067,12 +9085,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="209" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="209" spans="2:7" ht="14.4" outlineLevel="1">
       <c r="B209" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="C209" s="159">
-        <f>IF($C$203="profit",C196,IF($C$203="fix",C89,C144))</f>
+      <c r="C209" s="247">
         <v>66.116100000000003</v>
       </c>
       <c r="D209" s="160">
@@ -9088,7 +9105,7 @@
         <v>75.580524449999984</v>
       </c>
     </row>
-    <row r="210" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="210" spans="2:7" outlineLevel="1">
       <c r="B210" s="122" t="s">
         <v>111</v>
       </c>
@@ -9109,7 +9126,7 @@
         <v>72.969590024999988</v>
       </c>
     </row>
-    <row r="211" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="211" spans="2:7" outlineLevel="1">
       <c r="B211" s="122" t="s">
         <v>110</v>
       </c>
@@ -9130,7 +9147,7 @@
         <v>50.972250000000003</v>
       </c>
     </row>
-    <row r="212" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="212" spans="2:7" outlineLevel="1">
       <c r="B212" s="122" t="s">
         <v>109</v>
       </c>
@@ -9151,7 +9168,7 @@
         <v>39.711999999999982</v>
       </c>
     </row>
-    <row r="213" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="213" spans="2:7" outlineLevel="1">
       <c r="B213" s="172"/>
       <c r="C213" s="172"/>
       <c r="D213" s="172"/>
@@ -9159,7 +9176,7 @@
       <c r="F213" s="172"/>
       <c r="G213" s="172"/>
     </row>
-    <row r="214" spans="2:7" ht="15" hidden="1" outlineLevel="1">
+    <row r="214" spans="2:7" ht="14.4" outlineLevel="1">
       <c r="B214" s="174" t="s">
         <v>236</v>
       </c>
@@ -9177,7 +9194,7 @@
       </c>
       <c r="G214" s="172"/>
     </row>
-    <row r="215" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="215" spans="2:7" outlineLevel="1">
       <c r="B215" s="175" t="s">
         <v>112</v>
       </c>
@@ -9199,7 +9216,7 @@
       </c>
       <c r="G215" s="172"/>
     </row>
-    <row r="216" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="216" spans="2:7" outlineLevel="1">
       <c r="B216" s="175" t="s">
         <v>111</v>
       </c>
@@ -9221,7 +9238,7 @@
       </c>
       <c r="G216" s="172"/>
     </row>
-    <row r="217" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="217" spans="2:7" outlineLevel="1">
       <c r="B217" s="175" t="s">
         <v>110</v>
       </c>
@@ -9243,7 +9260,7 @@
       </c>
       <c r="G217" s="172"/>
     </row>
-    <row r="218" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="218" spans="2:7" outlineLevel="1">
       <c r="B218" s="175" t="s">
         <v>109</v>
       </c>
@@ -9265,31 +9282,31 @@
       </c>
       <c r="G218" s="172"/>
     </row>
-    <row r="219" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="219" spans="2:7" outlineLevel="1">
       <c r="C219" s="158"/>
       <c r="D219" s="158"/>
       <c r="E219" s="158"/>
       <c r="F219" s="162"/>
     </row>
-    <row r="220" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="220" spans="2:7" outlineLevel="1">
       <c r="B220" s="22"/>
       <c r="F220" s="130"/>
     </row>
-    <row r="221" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="221" spans="2:7" outlineLevel="1">
       <c r="C221" s="158"/>
       <c r="D221" s="158"/>
       <c r="E221" s="158"/>
       <c r="F221" s="162"/>
     </row>
-    <row r="222" spans="2:7" s="149" customFormat="1" ht="15.75" hidden="1" outlineLevel="1">
+    <row r="222" spans="2:7" s="149" customFormat="1" ht="15.6" outlineLevel="1">
       <c r="B222" s="150" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="223" spans="2:7" outlineLevel="1">
       <c r="B223"/>
     </row>
-    <row r="224" spans="2:7" ht="15" hidden="1" outlineLevel="1">
+    <row r="224" spans="2:7" ht="14.4" outlineLevel="1">
       <c r="B224" s="123" t="s">
         <v>230</v>
       </c>
@@ -9306,7 +9323,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="225" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="225" spans="2:8" outlineLevel="1">
       <c r="B225" s="122" t="s">
         <v>112</v>
       </c>
@@ -9330,7 +9347,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="226" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="226" spans="2:8" outlineLevel="1">
       <c r="B226" s="122" t="s">
         <v>111</v>
       </c>
@@ -9351,7 +9368,7 @@
         <v>-169.01325</v>
       </c>
     </row>
-    <row r="227" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="227" spans="2:8" outlineLevel="1">
       <c r="B227" s="122" t="s">
         <v>110</v>
       </c>
@@ -9372,7 +9389,7 @@
         <v>-145.63499999999999</v>
       </c>
     </row>
-    <row r="228" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="228" spans="2:8" outlineLevel="1">
       <c r="B228" s="122" t="s">
         <v>109</v>
       </c>
@@ -9393,13 +9410,13 @@
         <v>-124.1</v>
       </c>
     </row>
-    <row r="229" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="229" spans="2:8" outlineLevel="1">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="230" spans="2:8" outlineLevel="1">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="231" spans="2:8" ht="14.4" outlineLevel="1">
       <c r="B231" s="123" t="s">
         <v>247</v>
       </c>
@@ -9416,7 +9433,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="232" spans="2:8" outlineLevel="1">
       <c r="B232" s="122" t="s">
         <v>112</v>
       </c>
@@ -9437,7 +9454,7 @@
         <v>62.511750000000006</v>
       </c>
     </row>
-    <row r="233" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="233" spans="2:8" outlineLevel="1">
       <c r="B233" s="122" t="s">
         <v>111</v>
       </c>
@@ -9458,7 +9475,7 @@
         <v>62.511750000000006</v>
       </c>
     </row>
-    <row r="234" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="234" spans="2:8" outlineLevel="1">
       <c r="B234" s="122" t="s">
         <v>110</v>
       </c>
@@ -9479,7 +9496,7 @@
         <v>53.865000000000009</v>
       </c>
     </row>
-    <row r="235" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="235" spans="2:8" outlineLevel="1">
       <c r="B235" s="122" t="s">
         <v>109</v>
       </c>
@@ -9500,21 +9517,21 @@
         <v>45.900000000000006</v>
       </c>
     </row>
-    <row r="236" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="236" spans="2:8" outlineLevel="1">
       <c r="B236"/>
     </row>
-    <row r="237" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="237" spans="2:8" outlineLevel="1">
       <c r="B237"/>
     </row>
-    <row r="238" spans="2:8" s="149" customFormat="1" ht="15.75" hidden="1" outlineLevel="1">
+    <row r="238" spans="2:8" s="149" customFormat="1" ht="15.6" outlineLevel="1">
       <c r="B238" s="150" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="239" spans="2:8" outlineLevel="1">
       <c r="B239"/>
     </row>
-    <row r="240" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="240" spans="2:8" ht="14.4" outlineLevel="1">
       <c r="B240" s="123" t="s">
         <v>125</v>
       </c>
@@ -9534,7 +9551,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="241" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="241" spans="2:8" outlineLevel="1">
       <c r="B241" s="122" t="s">
         <v>112</v>
       </c>
@@ -9556,7 +9573,7 @@
       </c>
       <c r="H241" s="167"/>
     </row>
-    <row r="242" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="242" spans="2:8" outlineLevel="1">
       <c r="B242" s="122" t="s">
         <v>111</v>
       </c>
@@ -9578,7 +9595,7 @@
       </c>
       <c r="H242" s="167"/>
     </row>
-    <row r="243" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="243" spans="2:8" outlineLevel="1">
       <c r="B243" s="122" t="s">
         <v>110</v>
       </c>
@@ -9600,7 +9617,7 @@
       </c>
       <c r="H243" s="167"/>
     </row>
-    <row r="244" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="244" spans="2:8" outlineLevel="1">
       <c r="B244" s="122" t="s">
         <v>109</v>
       </c>
@@ -9622,14 +9639,14 @@
       </c>
       <c r="H244" s="167"/>
     </row>
-    <row r="245" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="245" spans="2:8" outlineLevel="1">
       <c r="C245" s="158"/>
       <c r="D245" s="158"/>
       <c r="E245" s="158"/>
       <c r="F245" s="162"/>
       <c r="H245" s="167"/>
     </row>
-    <row r="246" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="246" spans="2:8" ht="14.4" outlineLevel="1">
       <c r="B246" s="123" t="s">
         <v>162</v>
       </c>
@@ -9649,13 +9666,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="247" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="247" spans="2:8" ht="14.4" outlineLevel="1">
       <c r="B247" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="C247" s="159">
-        <f>C78*C16*$C$22</f>
-        <v>59.349000000000004</v>
+      <c r="C247" s="246">
+        <v>59.348999999999997</v>
       </c>
       <c r="D247" s="160">
         <f t="shared" ref="D247:F247" si="59">D78*D16*$C$22</f>
@@ -9670,7 +9686,7 @@
         <v>69.574000500000011</v>
       </c>
     </row>
-    <row r="248" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="248" spans="2:8" outlineLevel="1">
       <c r="B248" s="122" t="s">
         <v>111</v>
       </c>
@@ -9692,7 +9708,7 @@
       </c>
       <c r="H248" s="167"/>
     </row>
-    <row r="249" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="249" spans="2:8" outlineLevel="1">
       <c r="B249" s="122" t="s">
         <v>110</v>
       </c>
@@ -9714,7 +9730,7 @@
       </c>
       <c r="H249" s="167"/>
     </row>
-    <row r="250" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="250" spans="2:8" outlineLevel="1">
       <c r="B250" s="122" t="s">
         <v>109</v>
       </c>
@@ -9736,14 +9752,14 @@
       </c>
       <c r="H250" s="167"/>
     </row>
-    <row r="251" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="251" spans="2:8" outlineLevel="1">
       <c r="C251" s="158"/>
       <c r="D251" s="158"/>
       <c r="E251" s="158"/>
       <c r="F251" s="162"/>
       <c r="H251" s="167"/>
     </row>
-    <row r="252" spans="2:8" ht="15" hidden="1" outlineLevel="1">
+    <row r="252" spans="2:8" ht="14.4" outlineLevel="1">
       <c r="B252" s="123" t="s">
         <v>127</v>
       </c>
@@ -9764,13 +9780,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="253" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="253" spans="2:8" outlineLevel="1">
       <c r="B253" s="122" t="s">
         <v>112</v>
       </c>
       <c r="C253" s="221">
         <f>C241+C247</f>
-        <v>-30.650999999999996</v>
+        <v>-30.651000000000003</v>
       </c>
       <c r="D253" s="222">
         <f t="shared" ref="D253:F253" si="63">D241+D247</f>
@@ -9785,7 +9801,7 @@
         <v>-43.780999499999979</v>
       </c>
     </row>
-    <row r="254" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="254" spans="2:8" outlineLevel="1">
       <c r="B254" s="122" t="s">
         <v>111</v>
       </c>
@@ -9806,7 +9822,7 @@
         <v>-46.753422749999984</v>
       </c>
     </row>
-    <row r="255" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="255" spans="2:8" outlineLevel="1">
       <c r="B255" s="122" t="s">
         <v>110</v>
       </c>
@@ -9827,7 +9843,7 @@
         <v>-45.013545000000008</v>
       </c>
     </row>
-    <row r="256" spans="2:8" hidden="1" outlineLevel="1">
+    <row r="256" spans="2:8" outlineLevel="1">
       <c r="B256" s="122" t="s">
         <v>109</v>
       </c>
@@ -9848,10 +9864,10 @@
         <v>-43.140000000000015</v>
       </c>
     </row>
-    <row r="257" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="257" spans="2:11" outlineLevel="1">
       <c r="B257"/>
     </row>
-    <row r="258" spans="2:11" ht="15" collapsed="1">
+    <row r="258" spans="2:11" ht="14.4">
       <c r="B258" s="123" t="s">
         <v>198</v>
       </c>
@@ -9961,7 +9977,7 @@
     <row r="263" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B263"/>
     </row>
-    <row r="264" spans="2:11" ht="15" hidden="1" outlineLevel="1">
+    <row r="264" spans="2:11" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B264" s="123" t="s">
         <v>199</v>
       </c>
@@ -10051,7 +10067,7 @@
       <c r="B270"/>
     </row>
     <row r="271" spans="2:11" hidden="1" outlineLevel="1"/>
-    <row r="272" spans="2:11" ht="15" hidden="1" outlineLevel="1">
+    <row r="272" spans="2:11" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B272" s="123"/>
       <c r="C272" s="147" t="s">
         <v>116</v>
@@ -10066,7 +10082,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="273" spans="2:7" ht="15" hidden="1" outlineLevel="1">
+    <row r="273" spans="2:7" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B273" s="189" t="s">
         <v>232</v>
       </c>
@@ -10087,7 +10103,7 @@
         <v>42.471999999999973</v>
       </c>
     </row>
-    <row r="274" spans="2:7" ht="15" hidden="1" outlineLevel="1">
+    <row r="274" spans="2:7" ht="14.4" hidden="1" outlineLevel="1">
       <c r="B274" s="187" t="s">
         <v>234</v>
       </c>
@@ -10190,8 +10206,8 @@
     <row r="280" spans="2:7" hidden="1" outlineLevel="1"/>
     <row r="281" spans="2:7" hidden="1" outlineLevel="1"/>
     <row r="282" spans="2:7" collapsed="1"/>
-    <row r="286" spans="2:7" ht="13.5" thickBot="1"/>
-    <row r="287" spans="2:7" ht="60" thickBot="1">
+    <row r="286" spans="2:7" ht="13.8" thickBot="1"/>
+    <row r="287" spans="2:7" ht="60.6" thickBot="1">
       <c r="C287" s="245">
         <v>6</v>
       </c>
@@ -10225,10 +10241,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="82.7109375" style="195" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="195" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -10302,7 +10318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.5">
+    <row r="19" spans="1:9" ht="26.4">
       <c r="B19" s="195" t="s">
         <v>157</v>
       </c>
@@ -10317,7 +10333,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25.5">
+    <row r="22" spans="1:9" ht="26.4">
       <c r="B22" s="196" t="s">
         <v>136</v>
       </c>
@@ -10350,7 +10366,7 @@
     <row r="27" spans="1:9">
       <c r="A27" s="183"/>
     </row>
-    <row r="28" spans="1:9" ht="25.5">
+    <row r="28" spans="1:9" ht="26.4">
       <c r="B28" s="195" t="s">
         <v>149</v>
       </c>
@@ -10469,15 +10485,15 @@
       <selection activeCell="Q1" sqref="Q1:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -10800,11 +10816,11 @@
       <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="65" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.5703125" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="73"/>
+    <col min="2" max="5" width="11.5546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="73"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8">
@@ -10829,8 +10845,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:8" s="74" customFormat="1" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="15" thickBot="1"/>
+    <row r="9" spans="1:8" s="74" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="74" t="s">
         <v>58</v>
       </c>
@@ -10856,7 +10872,7 @@
       <c r="G9" s="76"/>
       <c r="H9" s="77"/>
     </row>
-    <row r="10" spans="1:8" s="81" customFormat="1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:8" s="81" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="78" t="s">
         <v>60</v>
       </c>
@@ -10882,7 +10898,7 @@
       <c r="G10" s="76"/>
       <c r="H10" s="77"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+    <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11" s="82" t="s">
         <v>61</v>
       </c>
@@ -10902,7 +10918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="12" spans="1:8" ht="15" outlineLevel="1" thickBot="1">
       <c r="A12" s="73">
         <v>2012</v>
       </c>
@@ -10914,7 +10930,7 @@
       <c r="D12" s="86"/>
       <c r="E12" s="87"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="13" spans="1:8" ht="15" outlineLevel="1" thickBot="1">
       <c r="A13" s="73">
         <v>2013</v>
       </c>
@@ -10925,7 +10941,7 @@
       <c r="D13" s="85"/>
       <c r="E13" s="87"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="14" spans="1:8" ht="15" outlineLevel="1" thickBot="1">
       <c r="A14" s="73">
         <v>2014</v>
       </c>
@@ -10935,7 +10951,7 @@
       </c>
       <c r="E14" s="88"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="15" spans="1:8" ht="15" outlineLevel="1" thickBot="1">
       <c r="A15" s="73">
         <v>2015</v>
       </c>
@@ -10944,7 +10960,7 @@
         <v>-110981.33805523807</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="81" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:8" s="81" customFormat="1" ht="15" thickBot="1">
       <c r="A16" s="89" t="s">
         <v>63</v>
       </c>
@@ -10970,7 +10986,7 @@
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+    <row r="17" spans="1:7" ht="15" thickBot="1">
       <c r="A17" s="82" t="s">
         <v>61</v>
       </c>
@@ -10991,7 +11007,7 @@
         <v>849.42444299999943</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="18" spans="1:7" ht="15" outlineLevel="1" thickBot="1">
       <c r="A18" s="73">
         <v>2012</v>
       </c>
@@ -11009,7 +11025,7 @@
         <v>-920</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="19" spans="1:7" ht="15" outlineLevel="1" thickBot="1">
       <c r="A19" s="73">
         <v>2013</v>
       </c>
@@ -11023,7 +11039,7 @@
         <v>562.70345250000071</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="20" spans="1:7" ht="15" outlineLevel="1" thickBot="1">
       <c r="A20" s="73">
         <v>2014</v>
       </c>
@@ -11034,7 +11050,7 @@
         <v>1178.997710000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="21" spans="1:7" ht="15" outlineLevel="1" thickBot="1">
       <c r="A21" s="73">
         <v>2015</v>
       </c>
@@ -11397,7 +11413,7 @@
       <c r="D46" s="92"/>
       <c r="E46" s="93"/>
     </row>
-    <row r="47" spans="1:6" s="114" customFormat="1" ht="33.75">
+    <row r="47" spans="1:6" s="114" customFormat="1" ht="33.6">
       <c r="A47" s="113" t="s">
         <v>41</v>
       </c>
@@ -11636,7 +11652,7 @@
       <c r="D69" s="92"/>
       <c r="E69" s="93"/>
     </row>
-    <row r="70" spans="1:14" s="114" customFormat="1" ht="33.75">
+    <row r="70" spans="1:14" s="114" customFormat="1" ht="33.6">
       <c r="A70" s="113" t="s">
         <v>91</v>
       </c>
@@ -12188,7 +12204,7 @@
       <c r="M97" s="81"/>
       <c r="N97" s="81"/>
     </row>
-    <row r="98" spans="1:27" s="81" customFormat="1" ht="15.75" thickBot="1">
+    <row r="98" spans="1:27" s="81" customFormat="1" ht="15" thickBot="1">
       <c r="A98" s="81" t="s">
         <v>74</v>
       </c>
@@ -12209,7 +12225,7 @@
         <v>-51401.742619499957</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="15.75" thickBot="1">
+    <row r="99" spans="1:27" ht="15" thickBot="1">
       <c r="A99" s="82" t="s">
         <v>61</v>
       </c>
@@ -12337,7 +12353,7 @@
       <c r="D104" s="102"/>
       <c r="E104" s="102"/>
     </row>
-    <row r="107" spans="1:27" s="114" customFormat="1" ht="33.75">
+    <row r="107" spans="1:27" s="114" customFormat="1" ht="33.6">
       <c r="A107" s="113" t="s">
         <v>90</v>
       </c>
@@ -13155,7 +13171,7 @@
       <selection activeCell="C24" sqref="C24:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="7" spans="2:6">
       <c r="D7" s="41" t="s">
@@ -13180,7 +13196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="25.5">
+    <row r="14" spans="2:6" ht="26.4">
       <c r="B14" s="35"/>
       <c r="C14" s="68" t="s">
         <v>42</v>
@@ -13320,7 +13336,7 @@
       </c>
       <c r="E25" s="53"/>
     </row>
-    <row r="26" spans="2:11" s="35" customFormat="1" ht="38.25">
+    <row r="26" spans="2:11" s="35" customFormat="1" ht="39.6">
       <c r="C26" s="53" t="s">
         <v>49</v>
       </c>
@@ -13329,7 +13345,7 @@
       </c>
       <c r="E26" s="53"/>
     </row>
-    <row r="27" spans="2:11" s="35" customFormat="1" ht="51">
+    <row r="27" spans="2:11" s="35" customFormat="1" ht="52.8">
       <c r="C27" s="53" t="s">
         <v>50</v>
       </c>
@@ -13338,7 +13354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="35" customFormat="1" ht="25.5">
+    <row r="28" spans="2:11" s="35" customFormat="1" ht="26.4">
       <c r="C28" s="53" t="s">
         <v>50</v>
       </c>
